--- a/data/eBooks-main/current/blazor-for-web-forms-developers/Blazor-for-ASP-NET-Web-Forms-Developers.pdf.hwaifs/tables/py/gmft/df.tables-21.xlsx
+++ b/data/eBooks-main/current/blazor-for-web-forms-developers/Blazor-for-ASP-NET-Web-Forms-Developers.pdf.hwaifs/tables/py/gmft/df.tables-21.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,8 +422,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="inlineStr"/>
-      <c r="C1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>dotnet ef database update</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -431,10 +434,9 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>@inject IAuthorizationService AuthorizationService</t>
+          <t>If you would rather run a script to apply the new schema to an existing database, you can script migrations from the command-line. Run this command to generate the script:</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -442,110 +444,9 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>&lt;button @onclick="@DoSomething"&gt;Do something important&lt;/button&gt;</t>
+          <t>dotnet ef migrations script -o auth.sql</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>@code {</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[CascadingParameter] private Task&lt;AuthenticationState&gt; authenticationStateTask { get; set; } private async Task DoSomething() {</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>var user = (await authenticationStateTask).User;</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>if (user.Identity.IsAuthenticated)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>{ // Perform an action only available to authenticated (signed-in) } if (user.IsInRole("admin"))</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>users.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>{ // Perform an action only available to users in the 'admin' }</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>role.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>if ((await AuthorizationService.AuthorizeAsync(user, .Succeeded)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>"content-editor"))</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>{ // Perform an action only available to users satisfying the // 'content-editor' policy.</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
